--- a/outputs/Manual Input.xlsx
+++ b/outputs/Manual Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -207,55 +207,55 @@
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,33 +696,33 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.21875" customWidth="1" min="2" max="2"/>
+    <col width="18.28515625" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="31.5546875" customWidth="1" min="4" max="4"/>
-    <col width="17.77734375" customWidth="1" min="5" max="5"/>
-    <col width="12.77734375" customWidth="1" min="6" max="6"/>
-    <col width="13.6640625" customWidth="1" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" min="8" max="8"/>
-    <col width="14.21875" customWidth="1" min="11" max="11"/>
-    <col width="11.77734375" customWidth="1" min="12" max="12"/>
-    <col width="17.109375" customWidth="1" min="13" max="13"/>
-    <col width="11.109375" customWidth="1" min="14" max="14"/>
-    <col width="16.44140625" customWidth="1" min="15" max="15"/>
+    <col width="31.5703125" customWidth="1" min="4" max="4"/>
+    <col width="17.7109375" customWidth="1" min="5" max="5"/>
+    <col width="12.7109375" customWidth="1" min="6" max="6"/>
+    <col width="13.7109375" customWidth="1" min="7" max="7"/>
+    <col width="8.85546875" customWidth="1" min="8" max="8"/>
+    <col width="14.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.7109375" customWidth="1" min="12" max="12"/>
+    <col width="17.140625" customWidth="1" min="13" max="13"/>
+    <col width="11.140625" customWidth="1" min="14" max="14"/>
+    <col width="16.42578125" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">IPETRO PLANT </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="29" t="n"/>
       <c r="B2" s="30" t="inlineStr">
         <is>
@@ -732,16 +732,7 @@
       <c r="C2" s="29" t="n"/>
       <c r="D2" s="29" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="29" t="n"/>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>TOTAL NO. OF EQUIPMENT: 10 EQUIPMENTS</t>
-        </is>
-      </c>
-      <c r="C3" s="29" t="n"/>
-      <c r="D3" s="29" t="n"/>
-    </row>
+    <row r="3" ht="18.75" customHeight="1"/>
     <row r="4"/>
     <row r="5">
       <c r="A5" s="19" t="inlineStr">
@@ -779,25 +770,25 @@
           <t>FLUID</t>
         </is>
       </c>
-      <c r="H5" s="17" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>MATERIAL INFORMATION</t>
         </is>
       </c>
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="22" t="n"/>
-      <c r="K5" s="17" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>INSULATION</t>
         </is>
       </c>
-      <c r="L5" s="17" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>DESIGN</t>
         </is>
       </c>
       <c r="M5" s="22" t="n"/>
-      <c r="N5" s="17" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>OPERATING</t>
         </is>
@@ -829,38 +820,38 @@
       <c r="E7" s="28" t="n"/>
       <c r="F7" s="28" t="n"/>
       <c r="G7" s="28" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="I7" s="17" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>SPEC.</t>
         </is>
       </c>
-      <c r="J7" s="17" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>GRADE</t>
         </is>
       </c>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="17" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TEMP. (°C) </t>
         </is>
       </c>
-      <c r="M7" s="17" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">PRESSURE (Mpa) </t>
         </is>
       </c>
-      <c r="N7" s="18" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>TEMP. (°C)</t>
         </is>
       </c>
-      <c r="O7" s="18" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>PRESSURE (Mpa)</t>
         </is>
@@ -909,7 +900,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>A/SA 516</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -945,12 +936,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H5:J6"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
@@ -958,6 +948,7 @@
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="N5:O6"/>
     <mergeCell ref="B5:B7"/>
   </mergeCells>
